--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Фамилия</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Петрович</t>
+  </si>
+  <si>
+    <t>yt yen</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,11 @@
         <v>37289</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -30,9 +30,6 @@
     <t>Отчество</t>
   </si>
   <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>yt yen</t>
+  </si>
+  <si>
+    <t>Дата_рождения</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
     <tableColumn id="1" name="Фамилия"/>
     <tableColumn id="2" name="Имя"/>
     <tableColumn id="3" name="Отчество"/>
-    <tableColumn id="4" name="Дата рождения" dataDxfId="0"/>
+    <tableColumn id="4" name="Дата_рождения" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,18 +411,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>36892</v>
@@ -430,13 +430,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>37289</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Фамилия</t>
   </si>
@@ -48,10 +48,19 @@
     <t>Петрович</t>
   </si>
   <si>
-    <t>yt yen</t>
-  </si>
-  <si>
     <t>Дата_рождения</t>
+  </si>
+  <si>
+    <t>Печать</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сидр</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
   </si>
 </sst>
 </file>
@@ -112,13 +121,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Фамилия"/>
     <tableColumn id="2" name="Имя"/>
     <tableColumn id="3" name="Отчество"/>
     <tableColumn id="4" name="Дата_рождения" dataDxfId="0"/>
+    <tableColumn id="5" name="Печать"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -387,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +410,7 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +421,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,8 +440,11 @@
       <c r="D2" s="1">
         <v>36892</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -441,10 +457,22 @@
       <c r="D3" s="1">
         <v>37289</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37683</v>
       </c>
     </row>
   </sheetData>

--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Print_AS\attachments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Фамилия</t>
   </si>
@@ -30,6 +30,12 @@
     <t>Отчество</t>
   </si>
   <si>
+    <t>Дата_рождения</t>
+  </si>
+  <si>
+    <t>Печать</t>
+  </si>
+  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -39,6 +45,12 @@
     <t>Иванович</t>
   </si>
   <si>
+    <t>01.01.2001</t>
+  </si>
+  <si>
+    <t>09.02.2024</t>
+  </si>
+  <si>
     <t>Петров</t>
   </si>
   <si>
@@ -48,10 +60,7 @@
     <t>Петрович</t>
   </si>
   <si>
-    <t>Дата_рождения</t>
-  </si>
-  <si>
-    <t>Печать</t>
+    <t>02.02.2002</t>
   </si>
   <si>
     <t>Сидоров</t>
@@ -400,7 +409,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +417,7 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -421,55 +431,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36892</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37289</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>37683</v>

--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Фамилия</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>01.01.2001</t>
-  </si>
-  <si>
-    <t>09.02.2024</t>
   </si>
   <si>
     <t>Петров</t>
@@ -409,7 +406,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,39 +447,42 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>37683</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -1,90 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Print_AS\attachments\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Дата_рождения</t>
-  </si>
-  <si>
-    <t>Печать</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>01.01.2001</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Петрович</t>
-  </si>
-  <si>
-    <t>02.02.2002</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Сидр</t>
-  </si>
-  <si>
-    <t>Сидорович</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,8 +46,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -115,19 +58,79 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Фамилия"/>
@@ -402,93 +405,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col width="11.7109375" customWidth="1" min="1" max="1"/>
+    <col width="11.42578125" customWidth="1" min="3" max="3"/>
+    <col width="17.42578125" customWidth="1" min="4" max="4"/>
+    <col width="13.5703125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата_рождения</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Печать</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>01.01.2001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Петр</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>02.02.2002</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37683</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Сидр</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Сидорович</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>03.03.2003</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09.02.2024</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/attachments/excel_tpl.xlsx
+++ b/attachments/excel_tpl.xlsx
@@ -1,33 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Print_AS\attachments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Дата_рождения</t>
+  </si>
+  <si>
+    <t>Печать</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>01.01.2001</t>
+  </si>
+  <si>
+    <t>09.02.2024</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>02.02.2002</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сидр</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
+  </si>
+  <si>
+    <t>03.03.2003</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,8 +109,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -58,79 +121,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0">
   <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Фамилия"/>
@@ -405,137 +408,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="3" max="3"/>
-    <col width="17.42578125" customWidth="1" min="4" max="4"/>
-    <col width="13.5703125" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Дата_рождения</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Печать</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>01.01.2001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09.02.2024</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Петр</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Петрович</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>02.02.2002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09.02.2024</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Сидоров</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Сидр</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Сидорович</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>03.03.2003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09.02.2024</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>